--- a/bot_udentify/istenen_magazalar.xlsx
+++ b/bot_udentify/istenen_magazalar.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C6307C-C1E8-9743-910F-ED5A232ACA8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705683E6-DDC3-AD44-81E7-F293E798C92D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16700" yWindow="3180" windowWidth="18620" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Firma</t>
   </si>
@@ -66,10 +66,34 @@
     <t>Under Armour Akasya</t>
   </si>
   <si>
-    <t>Under Armour Istinye Park</t>
-  </si>
-  <si>
-    <t>["BOYS","GIRLS"],["WOMEN'S RUN","MEN'S RUN"]</t>
+    <t>[["BOYS","GIRLS"],["WOMEN'S RUN","MEN'S RUN"]]</t>
+  </si>
+  <si>
+    <t>Mağaza konumu</t>
+  </si>
+  <si>
+    <t>Zorlu Center</t>
+  </si>
+  <si>
+    <t>Akasya</t>
+  </si>
+  <si>
+    <t>İstinye Park</t>
+  </si>
+  <si>
+    <t>Under Armour İstinye Park</t>
+  </si>
+  <si>
+    <t>Suwen</t>
+  </si>
+  <si>
+    <t>Suwen Viaport</t>
+  </si>
+  <si>
+    <t>Viaport</t>
+  </si>
+  <si>
+    <t>[["TAYT","ÇORAP"],["ATLET","ERKEK REYONU"]]</t>
   </si>
 </sst>
 </file>
@@ -105,9 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +461,7 @@
     <col min="8" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +483,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -469,19 +498,22 @@
         <v>239</v>
       </c>
       <c r="D2" s="1">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="E2" s="1">
-        <v>44190</v>
+        <v>44215</v>
       </c>
       <c r="F2">
         <v>160</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -492,42 +524,74 @@
         <v>240</v>
       </c>
       <c r="D3" s="1">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="E3" s="1">
-        <v>44190</v>
+        <v>44215</v>
       </c>
       <c r="F3">
         <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>228</v>
       </c>
       <c r="D4" s="1">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="E4" s="1">
-        <v>44190</v>
+        <v>44215</v>
       </c>
       <c r="F4">
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>307</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44197</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44215</v>
+      </c>
+      <c r="F5">
+        <v>189</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bot_udentify/istenen_magazalar.xlsx
+++ b/bot_udentify/istenen_magazalar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705683E6-DDC3-AD44-81E7-F293E798C92D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D8DA0E-87BA-E643-9A8A-5B2116AC77E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
@@ -57,21 +57,33 @@
     <t>Karşılaştırılacak isim listesi</t>
   </si>
   <si>
-    <t>Under Armour Zorlu Center</t>
-  </si>
-  <si>
-    <t>Under Armour</t>
-  </si>
-  <si>
-    <t>Under Armour Akasya</t>
-  </si>
-  <si>
     <t>[["BOYS","GIRLS"],["WOMEN'S RUN","MEN'S RUN"]]</t>
   </si>
   <si>
     <t>Mağaza konumu</t>
   </si>
   <si>
+    <t>[["TAYT","ÇORAP"],["ATLET","ERKEK REYONU"]]</t>
+  </si>
+  <si>
+    <t>under armour zorlu center</t>
+  </si>
+  <si>
+    <t>under armour akasya</t>
+  </si>
+  <si>
+    <t>under armour istinye park</t>
+  </si>
+  <si>
+    <t>suwen viaport</t>
+  </si>
+  <si>
+    <t>under armour</t>
+  </si>
+  <si>
+    <t>suwen</t>
+  </si>
+  <si>
     <t>Zorlu Center</t>
   </si>
   <si>
@@ -81,19 +93,7 @@
     <t>İstinye Park</t>
   </si>
   <si>
-    <t>Under Armour İstinye Park</t>
-  </si>
-  <si>
-    <t>Suwen</t>
-  </si>
-  <si>
-    <t>Suwen Viaport</t>
-  </si>
-  <si>
     <t>Viaport</t>
-  </si>
-  <si>
-    <t>[["TAYT","ÇORAP"],["ATLET","ERKEK REYONU"]]</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,15 +484,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>239</v>
@@ -507,18 +507,18 @@
         <v>160</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>240</v>
@@ -533,18 +533,18 @@
         <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>228</v>
@@ -559,18 +559,18 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>307</v>
@@ -585,10 +585,10 @@
         <v>189</v>
       </c>
       <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/bot_udentify/istenen_magazalar.xlsx
+++ b/bot_udentify/istenen_magazalar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D8DA0E-87BA-E643-9A8A-5B2116AC77E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC2067-C027-724B-9F26-4345590DB01E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
+    <workbookView xWindow="3580" yWindow="500" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/bot_udentify/istenen_magazalar.xlsx
+++ b/bot_udentify/istenen_magazalar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC2067-C027-724B-9F26-4345590DB01E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0275C-751A-3A4A-B6F5-FDD92B8800E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="500" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
+    <workbookView xWindow="12700" yWindow="1440" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Firma</t>
   </si>
@@ -57,40 +57,16 @@
     <t>Karşılaştırılacak isim listesi</t>
   </si>
   <si>
-    <t>[["BOYS","GIRLS"],["WOMEN'S RUN","MEN'S RUN"]]</t>
-  </si>
-  <si>
     <t>Mağaza konumu</t>
   </si>
   <si>
     <t>[["TAYT","ÇORAP"],["ATLET","ERKEK REYONU"]]</t>
   </si>
   <si>
-    <t>under armour zorlu center</t>
-  </si>
-  <si>
-    <t>under armour akasya</t>
-  </si>
-  <si>
-    <t>under armour istinye park</t>
-  </si>
-  <si>
     <t>suwen viaport</t>
   </si>
   <si>
-    <t>under armour</t>
-  </si>
-  <si>
     <t>suwen</t>
-  </si>
-  <si>
-    <t>Zorlu Center</t>
-  </si>
-  <si>
-    <t>Akasya</t>
-  </si>
-  <si>
-    <t>İstinye Park</t>
   </si>
   <si>
     <t>Viaport</t>
@@ -129,10 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +426,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,112 +459,46 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>239</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44197</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44215</v>
+        <v>307</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44228</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44239</v>
       </c>
       <c r="F2">
-        <v>160</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>240</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44197</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44215</v>
-      </c>
-      <c r="F3">
-        <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>228</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44197</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44215</v>
-      </c>
-      <c r="F4">
-        <v>149</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>307</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44197</v>
-      </c>
-      <c r="E5" s="3">
-        <v>44215</v>
-      </c>
-      <c r="F5">
-        <v>189</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/bot_udentify/istenen_magazalar.xlsx
+++ b/bot_udentify/istenen_magazalar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0275C-751A-3A4A-B6F5-FDD92B8800E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EF6D6C-1B2F-B248-B094-3EB7D9268B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="1440" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,16 +60,16 @@
     <t>Mağaza konumu</t>
   </si>
   <si>
-    <t>[["TAYT","ÇORAP"],["ATLET","ERKEK REYONU"]]</t>
-  </si>
-  <si>
-    <t>suwen viaport</t>
-  </si>
-  <si>
-    <t>suwen</t>
-  </si>
-  <si>
-    <t>Viaport</t>
+    <t>mediamarkt</t>
+  </si>
+  <si>
+    <t>mediamarkt ankara forum</t>
+  </si>
+  <si>
+    <t>[["5 LG TV","5 SAMSUNG TV"],["5 VESTEL TV","36 BOSCH"]]</t>
+  </si>
+  <si>
+    <t>Ankara Forum</t>
   </si>
 </sst>
 </file>
@@ -105,9 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +425,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,44 +463,45 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>307</v>
-      </c>
-      <c r="D2" s="2">
+        <v>318</v>
+      </c>
+      <c r="D2" s="1">
         <v>44228</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>44239</v>
       </c>
       <c r="F2">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/bot_udentify/istenen_magazalar.xlsx
+++ b/bot_udentify/istenen_magazalar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EF6D6C-1B2F-B248-B094-3EB7D9268B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AD961-3CBD-F44A-992D-929AD447A046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
@@ -60,16 +60,16 @@
     <t>Mağaza konumu</t>
   </si>
   <si>
-    <t>mediamarkt</t>
-  </si>
-  <si>
-    <t>mediamarkt ankara forum</t>
-  </si>
-  <si>
-    <t>[["5 LG TV","5 SAMSUNG TV"],["5 VESTEL TV","36 BOSCH"]]</t>
-  </si>
-  <si>
-    <t>Ankara Forum</t>
+    <t>ebebek</t>
+  </si>
+  <si>
+    <t>ebebek bostancı</t>
+  </si>
+  <si>
+    <t>Bostancı</t>
+  </si>
+  <si>
+    <t>[["8.3-Güneş Ürunleri","5 SAMSUNG TV"],["5 VESTEL TV","36 BOSCH"]]</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>318</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1">
         <v>44228</v>
@@ -478,13 +478,13 @@
         <v>44239</v>
       </c>
       <c r="F2">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/bot_udentify/istenen_magazalar.xlsx
+++ b/bot_udentify/istenen_magazalar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AD961-3CBD-F44A-992D-929AD447A046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E153D232-AC82-EA42-97A3-B09D3E1194A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
@@ -60,16 +60,16 @@
     <t>Mağaza konumu</t>
   </si>
   <si>
-    <t>ebebek</t>
-  </si>
-  <si>
-    <t>ebebek bostancı</t>
-  </si>
-  <si>
-    <t>Bostancı</t>
-  </si>
-  <si>
-    <t>[["8.3-Güneş Ürunleri","5 SAMSUNG TV"],["5 VESTEL TV","36 BOSCH"]]</t>
+    <t>under armour</t>
+  </si>
+  <si>
+    <t>under armour akasya</t>
+  </si>
+  <si>
+    <t>[["BOYS","GIRLS"],["WOMEN'S RUN","MEN'S RUN"]]</t>
+  </si>
+  <si>
+    <t>Akasya</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1">
         <v>44228</v>
@@ -478,13 +478,13 @@
         <v>44239</v>
       </c>
       <c r="F2">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
